--- a/strategy_sep/posthoc_dscf/posthoc_dscf3.xlsx
+++ b/strategy_sep/posthoc_dscf/posthoc_dscf3.xlsx
@@ -1,25 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_sep/posthoc_dscf/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_41EE21ED1F2305CE9AC24712E3F2D3C2D4DACB6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C0E9BB4-C9CB-4CE4-8364-DF4A237F0262}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="25080" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+  <si>
+    <t>yoi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -27,8 +59,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,17 +113,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -122,7 +169,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -156,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,9 +238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,96 +414,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
       </c>
       <c r="E1" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1E-3</v>
+      </c>
+      <c r="D2">
+        <v>3.4991726870123641E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1E-3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.03499172687012364</v>
-      </c>
-      <c r="D2">
-        <v>0.001</v>
-      </c>
-      <c r="E2">
-        <v>0.2162938757532716</v>
+      <c r="B4">
+        <v>3.4991726870123641E-2</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.21629387575327161</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.03499172687012364</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0.001</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.001</v>
-      </c>
-      <c r="C4">
-        <v>0.001</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2162938757532716</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0.001</v>
+        <v>0.21629387575327161</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>